--- a/TemplateGOTests/data/value.xlsx
+++ b/TemplateGOTests/data/value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F1949C-F799-4E9A-A9D2-D83EE942B88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8072A463-7FB6-4E51-B97A-E6D3C65BB6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="375" windowWidth="19890" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16005" yWindow="120" windowWidth="16335" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性替换" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>TemplateGO 测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,55 +105,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${home|link:homeLink}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个应该也被换了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>${history}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${history|list}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>=age</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>className</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
@@ -248,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是我的首页${home|link:homeLink}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${name}${name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我得了${score|link:homeLink}分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅添加超链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +229,34 @@
   </si>
   <si>
     <t>不支持的处理程序将原样保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我得了${score}${homeLink|link}分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是我的首页${homeLink|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${homeLink}${homeLink|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性不存在时设置为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${notExists}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${notExists}不存在的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${name|nono}原样保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,12 +369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -409,22 +382,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -812,26 +802,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -936,7 +906,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>测试数据!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -962,7 +932,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$G$4:$G$9</c:f>
+              <c:f>测试数据!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1008,7 +978,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>测试数据!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1034,7 +1004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$H$4:$H$9</c:f>
+              <c:f>测试数据!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1080,7 +1050,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>测试数据!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1106,7 +1076,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$I$4:$I$9</c:f>
+              <c:f>测试数据!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1182,7 +1152,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:f>测试数据!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1208,7 +1178,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测试数据!$J$4:$J$9</c:f>
+              <c:f>测试数据!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2014,7 +1984,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{90470CA8-3C2B-4BA3-BF9F-6D6108E8EED2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2025,7 +1995,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9311355" cy="6079977"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -2055,19 +2025,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="B3:J9" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B3:J9" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="A1:I7" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:I7" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>SUM(G4:I4)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUM(F2:H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2342,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2363,194 +2333,230 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>56</v>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A10" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <f>ROW()-2</f>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <f t="shared" ref="A11:A17" si="1">ROW()-2</f>
+      <c r="A11" s="5">
+        <f t="shared" ref="A11:A20" si="1">ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>46</v>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>49</v>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2565,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{DEF444FF-B619-461F-8641-2326955D17C4}"/>
+    <hyperlink ref="B11" r:id="rId1" display="${home|link:homeLink}" xr:uid="{DEF444FF-B619-461F-8641-2326955D17C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2570,13 +2576,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44AD891-4449-45E2-B2B6-B14BFB8A4222}">
   <dimension ref="B4:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -2596,285 +2604,229 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07B48BF-A35D-4402-A424-C36A93E45C90}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44830</v>
+      </c>
+      <c r="D2" s="1">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1">
+        <v>88</v>
+      </c>
+      <c r="H2" s="1">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(F2:H2)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="C3" s="3">
+        <v>44830</v>
+      </c>
+      <c r="D3" s="1">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="F3" s="1">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUM(F3:H3)</f>
+        <v>254</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="3">
+        <v>44830</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1">
+        <v>99</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUM(F4:H4)</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44830</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>76</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1">
+        <v>68</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUM(F5:H5)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44830</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1">
+        <v>88</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6" si="0">SUM(F6:H6)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
         <v>44830</v>
       </c>
-      <c r="E4" s="1">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1">
-        <v>86</v>
-      </c>
-      <c r="H4" s="1">
-        <v>88</v>
-      </c>
-      <c r="I4" s="1">
-        <v>75</v>
-      </c>
-      <c r="J4" s="1">
-        <f>SUM(G4:I4)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E5" s="1">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1">
-        <v>88</v>
-      </c>
-      <c r="H5" s="1">
-        <v>90</v>
-      </c>
-      <c r="I5" s="1">
-        <v>76</v>
-      </c>
-      <c r="J5" s="1">
-        <f>SUM(G5:I5)</f>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E6" s="1">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1">
-        <v>90</v>
-      </c>
-      <c r="H6" s="1">
-        <v>90</v>
-      </c>
-      <c r="I6" s="1">
-        <v>99</v>
-      </c>
-      <c r="J6" s="1">
-        <f>SUM(G6:I6)</f>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E7" s="1">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
+      <c r="D7" s="1">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>77</v>
       </c>
       <c r="G7" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I7" s="1">
-        <v>68</v>
-      </c>
-      <c r="J7" s="1">
-        <f>SUM(G7:I7)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>85</v>
-      </c>
-      <c r="H8" s="1">
-        <v>76</v>
-      </c>
-      <c r="I8" s="1">
-        <v>88</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" ref="J8" si="0">SUM(G8:I8)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1">
-        <v>77</v>
-      </c>
-      <c r="H9" s="1">
-        <v>79</v>
-      </c>
-      <c r="I9" s="1">
-        <v>96</v>
-      </c>
-      <c r="J9" s="1">
-        <f>SUM(G9:I9)</f>
+        <f>SUM(F7:H7)</f>
         <v>252</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B9">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/TemplateGOTests/data/value.xlsx
+++ b/TemplateGOTests/data/value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8072A463-7FB6-4E51-B97A-E6D3C65BB6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD63C320-D3BE-4554-B731-2C94006FC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16005" yWindow="120" windowWidth="16335" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="90" windowWidth="18300" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性替换" sheetId="1" r:id="rId1"/>
@@ -395,26 +395,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -802,6 +782,26 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -848,6 +848,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>${name} </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>测试</a:t>
@@ -1230,6 +1234,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1295,6 +1329,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>坐标轴</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>${name}</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1337,6 +1431,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1984,7 +2108,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{90470CA8-3C2B-4BA3-BF9F-6D6108E8EED2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1993,9 +2117,164 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2038349</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C967063C-0309-258E-56A0-2B5FEED3D848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419099" y="3924300"/>
+          <a:ext cx="2028825" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>插入的文字也应该被替换</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>${name}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A43DF8-4CA5-8715-2D94-5C292CADA8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="4514850"/>
+          <a:ext cx="2009775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>形状也一样被替换</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>${name}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311355" cy="6079977"/>
+    <xdr:ext cx="9306537" cy="6082018"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -2025,18 +2304,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="A1:I7" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="A1:I7" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:I7" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(F2:H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2315,7 +2594,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2569,6 +2848,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2825,8 +3105,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/TemplateGOTests/data/value.xlsx
+++ b/TemplateGOTests/data/value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD63C320-D3BE-4554-B731-2C94006FC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6C7E0B-78A7-43C8-96C6-9AD6BD1EB665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="90" windowWidth="18300" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18300" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性替换" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>TemplateGO 测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>${name|nono}原样保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has Phone: ${hasPhone}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔 + 文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,6 +403,26 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -781,26 +809,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2121,13 +2129,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2038349</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2199,13 +2207,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2028825</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2304,18 +2312,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="A1:I7" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="A1:I7" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:I7" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM(F2:H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2591,7 +2599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -2648,7 +2656,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A10" si="0">ROW()-2</f>
+        <f t="shared" ref="A5:A11" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2700,10 +2708,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2712,34 +2720,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <f t="shared" ref="A11:A20" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>52</v>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A12:A21" si="1">ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2748,10 +2756,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2760,10 +2768,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2772,10 +2780,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2784,10 +2792,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2796,10 +2804,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2808,7 +2816,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>49</v>
@@ -2820,10 +2828,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,9 +2840,21 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2844,7 +2864,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="${home|link:homeLink}" xr:uid="{DEF444FF-B619-461F-8641-2326955D17C4}"/>
+    <hyperlink ref="B12" r:id="rId1" display="${home|link:homeLink}" xr:uid="{DEF444FF-B619-461F-8641-2326955D17C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3105,8 +3125,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
